--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/john/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C2C81587-3ABF-41B8-ABC3-2079BAB7AFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:40009_{C2C81587-3ABF-41B8-ABC3-2079BAB7AFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF3B4FB0-1856-4811-B43E-8BC9FBEAC29C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="sample size" sheetId="2" r:id="rId2"/>
+    <sheet name="PMC7969324" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
+    <sheet name="tables" sheetId="4" r:id="rId4"/>
+    <sheet name="sample size" sheetId="2" r:id="rId5"/>
+    <sheet name="pvalues" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="18">
   <si>
     <t>row</t>
   </si>
@@ -62,247 +79,25 @@
     <t>PMC7969324</t>
   </si>
   <si>
-    <t>PMC7969325</t>
+    <t>PMC7931813</t>
   </si>
   <si>
-    <t>PMC7969326</t>
+    <t>yes</t>
   </si>
   <si>
-    <t>PMC7969327</t>
+    <t>pvalues</t>
   </si>
   <si>
-    <t>PMC7969328</t>
+    <t>comment</t>
   </si>
   <si>
-    <t>PMC7969329</t>
-  </si>
-  <si>
-    <t>PMC7969330</t>
-  </si>
-  <si>
-    <t>PMC7969331</t>
-  </si>
-  <si>
-    <t>PMC7969332</t>
-  </si>
-  <si>
-    <t>PMC7969333</t>
-  </si>
-  <si>
-    <t>PMC7969334</t>
-  </si>
-  <si>
-    <t>PMC7969335</t>
-  </si>
-  <si>
-    <t>PMC7969336</t>
-  </si>
-  <si>
-    <t>PMC7969337</t>
-  </si>
-  <si>
-    <t>PMC7969338</t>
-  </si>
-  <si>
-    <t>PMC7969339</t>
-  </si>
-  <si>
-    <t>PMC7969340</t>
-  </si>
-  <si>
-    <t>PMC7969341</t>
-  </si>
-  <si>
-    <t>PMC7969342</t>
-  </si>
-  <si>
-    <t>PMC7969343</t>
-  </si>
-  <si>
-    <t>PMC7969344</t>
-  </si>
-  <si>
-    <t>PMC7969345</t>
-  </si>
-  <si>
-    <t>PMC7969346</t>
-  </si>
-  <si>
-    <t>PMC7969347</t>
-  </si>
-  <si>
-    <t>PMC7969348</t>
-  </si>
-  <si>
-    <t>PMC7969349</t>
-  </si>
-  <si>
-    <t>PMC7969350</t>
-  </si>
-  <si>
-    <t>PMC7969351</t>
-  </si>
-  <si>
-    <t>PMC7969352</t>
-  </si>
-  <si>
-    <t>PMC7969353</t>
-  </si>
-  <si>
-    <t>PMC7969354</t>
-  </si>
-  <si>
-    <t>PMC7969355</t>
-  </si>
-  <si>
-    <t>PMC7969356</t>
-  </si>
-  <si>
-    <t>PMC7969357</t>
-  </si>
-  <si>
-    <t>PMC7969358</t>
-  </si>
-  <si>
-    <t>PMC7969359</t>
-  </si>
-  <si>
-    <t>PMC7969360</t>
-  </si>
-  <si>
-    <t>PMC7969361</t>
-  </si>
-  <si>
-    <t>PMC7969362</t>
-  </si>
-  <si>
-    <t>PMC7969363</t>
-  </si>
-  <si>
-    <t>PMC7969364</t>
-  </si>
-  <si>
-    <t>PMC7969365</t>
-  </si>
-  <si>
-    <t>PMC7969366</t>
-  </si>
-  <si>
-    <t>PMC7969367</t>
-  </si>
-  <si>
-    <t>PMC7969368</t>
-  </si>
-  <si>
-    <t>PMC7969369</t>
-  </si>
-  <si>
-    <t>PMC7969370</t>
-  </si>
-  <si>
-    <t>PMC7969371</t>
-  </si>
-  <si>
-    <t>PMC7969372</t>
-  </si>
-  <si>
-    <t>PMC7969373</t>
-  </si>
-  <si>
-    <t>PMC7969374</t>
-  </si>
-  <si>
-    <t>PMC7969375</t>
-  </si>
-  <si>
-    <t>PMC7969376</t>
-  </si>
-  <si>
-    <t>PMC7969377</t>
-  </si>
-  <si>
-    <t>PMC7969378</t>
-  </si>
-  <si>
-    <t>PMC7969379</t>
-  </si>
-  <si>
-    <t>PMC7969380</t>
-  </si>
-  <si>
-    <t>PMC7969381</t>
-  </si>
-  <si>
-    <t>PMC7969382</t>
-  </si>
-  <si>
-    <t>PMC7969383</t>
-  </si>
-  <si>
-    <t>PMC7969384</t>
-  </si>
-  <si>
-    <t>PMC7969385</t>
-  </si>
-  <si>
-    <t>PMC7969386</t>
-  </si>
-  <si>
-    <t>PMC7969387</t>
-  </si>
-  <si>
-    <t>PMC7969388</t>
-  </si>
-  <si>
-    <t>PMC7969389</t>
-  </si>
-  <si>
-    <t>PMC7969390</t>
-  </si>
-  <si>
-    <t>PMC7969391</t>
-  </si>
-  <si>
-    <t>PMC7969392</t>
-  </si>
-  <si>
-    <t>PMC7969393</t>
-  </si>
-  <si>
-    <t>PMC7969394</t>
-  </si>
-  <si>
-    <t>PMC7969395</t>
-  </si>
-  <si>
-    <t>PMC7969396</t>
-  </si>
-  <si>
-    <t>PMC7969397</t>
-  </si>
-  <si>
-    <t>PMC7969398</t>
-  </si>
-  <si>
-    <t>PMC7969399</t>
-  </si>
-  <si>
-    <t>PMC7969400</t>
-  </si>
-  <si>
-    <t>PMC7969401</t>
-  </si>
-  <si>
-    <t>PMC7969402</t>
-  </si>
-  <si>
-    <t>PMC7969403</t>
+    <t>no baseline table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,10 +938,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1154,7 +951,7 @@
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1179,8 +976,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1206,9 +1006,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1232,9 +1032,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1258,9 +1058,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1284,9 +1084,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1310,9 +1110,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1336,9 +1136,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1362,9 +1162,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1388,9 +1188,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1414,9 +1214,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1440,9 +1240,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1466,9 +1266,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1492,9 +1292,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -1518,9 +1318,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -1544,9 +1344,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1572,7 +1372,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1598,7 +1398,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1624,7 +1424,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1650,7 +1450,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1676,7 +1476,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1702,7 +1502,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -1728,7 +1528,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -1754,7 +1554,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -1780,7 +1580,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1806,7 +1606,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1832,7 +1632,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -1858,7 +1658,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>14</v>
@@ -1884,7 +1684,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>14</v>
@@ -1910,7 +1710,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -1936,7 +1736,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -1962,7 +1762,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -1988,7 +1788,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -2014,7 +1814,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>17</v>
@@ -2040,7 +1840,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -2066,7 +1866,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>18</v>
@@ -2092,7 +1892,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -2118,7 +1918,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -2144,7 +1944,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>19</v>
@@ -2170,7 +1970,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>20</v>
@@ -2196,7 +1996,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>20</v>
@@ -2222,7 +2022,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>21</v>
@@ -2248,7 +2048,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -2274,7 +2074,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>22</v>
@@ -2300,7 +2100,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>22</v>
@@ -2326,7 +2126,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>23</v>
@@ -2352,7 +2152,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>23</v>
@@ -2378,7 +2178,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>24</v>
@@ -2404,7 +2204,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -2430,7 +2230,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>25</v>
@@ -2456,7 +2256,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -2482,7 +2282,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>26</v>
@@ -2508,7 +2308,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>26</v>
@@ -2534,7 +2334,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>27</v>
@@ -2560,7 +2360,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>27</v>
@@ -2586,7 +2386,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>28</v>
@@ -2612,7 +2412,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>28</v>
@@ -2638,7 +2438,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>29</v>
@@ -2664,7 +2464,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>29</v>
@@ -2690,7 +2490,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>30</v>
@@ -2716,7 +2516,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>30</v>
@@ -2742,7 +2542,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>31</v>
@@ -2768,7 +2568,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>31</v>
@@ -2794,7 +2594,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -2820,7 +2620,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -2846,7 +2646,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B66">
         <v>33</v>
@@ -2872,7 +2672,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>33</v>
@@ -2898,7 +2698,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B68">
         <v>34</v>
@@ -2924,7 +2724,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>34</v>
@@ -2950,7 +2750,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>35</v>
@@ -2976,7 +2776,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>35</v>
@@ -3002,7 +2802,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B72">
         <v>36</v>
@@ -3028,7 +2828,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B73">
         <v>36</v>
@@ -3054,7 +2854,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -3080,7 +2880,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B75">
         <v>37</v>
@@ -3106,7 +2906,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>38</v>
@@ -3132,7 +2932,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>38</v>
@@ -3158,7 +2958,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>39</v>
@@ -3184,7 +2984,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B79">
         <v>39</v>
@@ -3210,7 +3010,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <v>40</v>
@@ -3236,7 +3036,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B81">
         <v>40</v>
@@ -3267,11 +3067,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E97C003-A2FA-4716-800C-19048F02027E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4584821-A179-42D9-AB1E-6A9639916995}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA695160-501F-40A4-A618-5565B1EDA358}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,4 +3161,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8F72C9-220B-4CF2-AFD4-8B6601460864}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A117CA-99FE-4D89-9B98-152F6FECAA56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6176B6C3-B5A9-484D-B38F-BD69D16441FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>